--- a/Data/postMortem/Field_PostMortem.xlsx
+++ b/Data/postMortem/Field_PostMortem.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Desktop\Github\multi-mic-recorder-analysis\multi-mic-recorder-analysis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Desktop\Github\multi-mic-recorder-analysis\multi-mic-recorder-analysis\Data\postMortem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391F3EC7-D2AA-4DE2-8CCB-01ECD2330703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767F96D-DA94-4D9C-8A77-E76BAD66378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{482F0BDC-A700-42B9-93C6-E744EF7465DF}"/>
+    <workbookView xWindow="1044" yWindow="-132" windowWidth="22128" windowHeight="13224" xr2:uid="{482F0BDC-A700-42B9-93C6-E744EF7465DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,12 +500,12 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -559,7 +558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -606,7 +605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -644,7 +643,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -682,7 +681,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
